--- a/misc_img/model scores.xlsx
+++ b/misc_img/model scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OtherProgrammingBullshit\pythong\templerun\Temple-Run-AI\misc_img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94618093-CF39-48CB-AD60-8C1D558380B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44CD187-F812-4CBE-921C-8D0FBF19391D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>model3</t>
+  </si>
+  <si>
+    <t>model4</t>
+  </si>
+  <si>
+    <t>model1</t>
   </si>
 </sst>
 </file>
@@ -345,62 +351,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>319</v>
+      </c>
+      <c r="B2">
         <v>2627</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>386</v>
+      </c>
+      <c r="B3">
         <v>1237</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>276</v>
+      </c>
+      <c r="B4">
         <v>1125</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>218</v>
+      </c>
+      <c r="B5">
         <v>248</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>2398</v>
+      </c>
+      <c r="B6">
         <v>298</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>302</v>
+      </c>
+      <c r="B7">
         <v>316</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>399</v>
+      </c>
+      <c r="B8">
         <v>304</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>479</v>
+      </c>
+      <c r="B9">
         <v>1984</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>316</v>
+      </c>
+      <c r="B10">
         <v>240</v>
+      </c>
+      <c r="C10">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>588</v>
+      </c>
+      <c r="B11">
+        <v>352</v>
+      </c>
+      <c r="C11">
+        <v>1894</v>
       </c>
     </row>
   </sheetData>

--- a/misc_img/model scores.xlsx
+++ b/misc_img/model scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OtherProgrammingBullshit\pythong\templerun\Temple-Run-AI\misc_img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44CD187-F812-4CBE-921C-8D0FBF19391D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0559306-298F-4300-AC66-17911B7A6B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>model3</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>model1</t>
+  </si>
+  <si>
+    <t>model5</t>
   </si>
 </sst>
 </file>
@@ -351,15 +354,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -369,8 +372,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>319</v>
       </c>
@@ -380,8 +386,11 @@
       <c r="C2">
         <v>1057</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>386</v>
       </c>
@@ -391,8 +400,11 @@
       <c r="C3">
         <v>530</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>276</v>
       </c>
@@ -402,8 +414,11 @@
       <c r="C4">
         <v>547</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>218</v>
       </c>
@@ -413,8 +428,11 @@
       <c r="C5">
         <v>276</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2398</v>
       </c>
@@ -424,8 +442,11 @@
       <c r="C6">
         <v>1861</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>302</v>
       </c>
@@ -435,8 +456,11 @@
       <c r="C7">
         <v>519</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>399</v>
       </c>
@@ -446,8 +470,11 @@
       <c r="C8">
         <v>1087</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>479</v>
       </c>
@@ -457,8 +484,11 @@
       <c r="C9">
         <v>546</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>316</v>
       </c>
@@ -468,8 +498,11 @@
       <c r="C10">
         <v>1038</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>588</v>
       </c>
@@ -478,6 +511,9 @@
       </c>
       <c r="C11">
         <v>1894</v>
+      </c>
+      <c r="D11">
+        <v>1971</v>
       </c>
     </row>
   </sheetData>
